--- a/2025.xlsx
+++ b/2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22CAEF-46AB-4691-B4CD-7BD1AFA56951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4CD85-039D-4711-8404-02DAD89D5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,9 @@
       <c r="A1" s="5">
         <v>2.5789599999999999</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5">
+        <v>2.5992299999999999</v>
+      </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -404,7 +406,9 @@
       <c r="A2" s="5">
         <v>2.57959</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>2.5999699999999999</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -420,7 +424,9 @@
       <c r="A3" s="5">
         <v>2.5802200000000002</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>2.6007099999999999</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -436,7 +442,9 @@
       <c r="A4" s="5">
         <v>2.5808499999999999</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>2.6014499999999998</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -452,7 +460,9 @@
       <c r="A5" s="5">
         <v>2.58148</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>2.6021899999999998</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -468,7 +478,9 @@
       <c r="A6" s="5">
         <v>2.5821100000000001</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>2.6029300000000002</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -484,7 +496,9 @@
       <c r="A7" s="5">
         <v>2.5827399999999998</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>2.6036700000000002</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -500,7 +514,9 @@
       <c r="A8" s="5">
         <v>2.5833699999999999</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>2.6044100000000001</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -516,7 +532,9 @@
       <c r="A9" s="5">
         <v>2.5840000000000001</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>2.6051500000000001</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -532,7 +550,9 @@
       <c r="A10" s="5">
         <v>2.5846300000000002</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>2.60589</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -545,7 +565,9 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5">
+        <v>2.5852900000000001</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -560,7 +582,9 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>2.58595</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -574,7 +598,9 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>2.5866099999999999</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -588,7 +614,9 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5">
+        <v>2.5872700000000002</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -602,7 +630,9 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>2.5879300000000001</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -616,7 +646,9 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5">
+        <v>2.5885899999999999</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -630,7 +662,9 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>2.5892499999999998</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -644,7 +678,9 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5">
+        <v>2.5899100000000002</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -658,7 +694,9 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5">
+        <v>2.59057</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -672,7 +710,9 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>2.5912299999999999</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -686,7 +726,9 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>2.5918899999999998</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -700,7 +742,9 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>2.5925500000000001</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -714,7 +758,9 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5">
+        <v>2.59321</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -728,7 +774,9 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5">
+        <v>2.5938699999999999</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -742,7 +790,9 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5">
+        <v>2.5945299999999998</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -756,7 +806,9 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5">
+        <v>2.5951900000000001</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -770,7 +822,9 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5">
+        <v>2.59585</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -784,7 +838,9 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5">
+        <v>2.5965099999999999</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -798,7 +854,9 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>2.5971700000000002</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -812,7 +870,9 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>2.5978300000000001</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -826,7 +886,9 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>2.59849</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>

--- a/2025.xlsx
+++ b/2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4CD85-039D-4711-8404-02DAD89D5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD79C1B2-9146-4889-9BD9-91B3C873A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,9 +145,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,12 +372,12 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="8"/>
+    <col min="2" max="2" width="12.6640625" style="7"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,7 +388,9 @@
       <c r="B1" s="5">
         <v>2.5992299999999999</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5">
+        <v>2.6225800000000001</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -409,7 +408,9 @@
       <c r="B2" s="5">
         <v>2.5999699999999999</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <v>2.62338</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -427,7 +428,9 @@
       <c r="B3" s="5">
         <v>2.6007099999999999</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>2.62418</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -445,7 +448,9 @@
       <c r="B4" s="5">
         <v>2.6014499999999998</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>2.6249799999999999</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -463,7 +468,9 @@
       <c r="B5" s="5">
         <v>2.6021899999999998</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>2.6257799999999998</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -481,7 +488,9 @@
       <c r="B6" s="5">
         <v>2.6029300000000002</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>2.6265800000000001</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -499,7 +508,9 @@
       <c r="B7" s="5">
         <v>2.6036700000000002</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>2.62738</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -517,7 +528,9 @@
       <c r="B8" s="5">
         <v>2.6044100000000001</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>2.62818</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -535,7 +548,9 @@
       <c r="B9" s="5">
         <v>2.6051500000000001</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>2.6289799999999999</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -553,7 +568,9 @@
       <c r="B10" s="5">
         <v>2.60589</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>2.6297799999999998</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -568,7 +585,9 @@
       <c r="A11" s="5">
         <v>2.5852900000000001</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>2.60677</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -578,14 +597,16 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2.58595</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5">
+        <v>2.60765</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -595,13 +616,15 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2.5866099999999999</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5">
+        <v>2.60853</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -611,13 +634,15 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2.5872700000000002</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>2.60941</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -627,13 +652,15 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2.5879300000000001</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5">
+        <v>2.61029</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -643,13 +670,15 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2.5885899999999999</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5">
+        <v>2.61117</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -659,13 +688,15 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2.5892499999999998</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5">
+        <v>2.61205</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -675,13 +706,15 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2.5899100000000002</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5">
+        <v>2.61293</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -691,13 +724,15 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2.59057</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5">
+        <v>2.61381</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -707,13 +742,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2.5912299999999999</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5">
+        <v>2.61469</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -723,13 +760,15 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2.5918899999999998</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5">
+        <v>2.61557</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -739,13 +778,15 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2.5925500000000001</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5">
+        <v>2.6164499999999999</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -755,13 +796,15 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2.59321</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5">
+        <v>2.6173299999999999</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -771,13 +814,15 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2.5938699999999999</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5">
+        <v>2.61822</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -787,13 +832,15 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2.5945299999999998</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <v>2.61911</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -803,13 +850,15 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2.5951900000000001</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5">
+        <v>2.62</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -819,13 +868,15 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>2.59585</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5">
+        <v>2.6208900000000002</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -835,13 +886,15 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2.5965099999999999</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5">
+        <v>2.6217800000000002</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -851,7 +904,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -867,13 +920,13 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2.5978300000000001</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -883,13 +936,13 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2.59849</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
@@ -899,7 +952,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>

--- a/2025.xlsx
+++ b/2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD79C1B2-9146-4889-9BD9-91B3C873A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B0217-C103-49E1-B6E1-68EB4F10FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,9 @@
       <c r="C1" s="5">
         <v>2.6225800000000001</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="5">
+        <v>2.6491699999999998</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -411,7 +413,9 @@
       <c r="C2" s="5">
         <v>2.62338</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>2.65008</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -431,7 +435,9 @@
       <c r="C3" s="5">
         <v>2.62418</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>2.6509900000000002</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -451,7 +457,9 @@
       <c r="C4" s="5">
         <v>2.6249799999999999</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>2.6518999999999999</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -471,7 +479,9 @@
       <c r="C5" s="5">
         <v>2.6257799999999998</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>2.6528200000000002</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -491,7 +501,9 @@
       <c r="C6" s="5">
         <v>2.6265800000000001</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>2.65374</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -511,7 +523,9 @@
       <c r="C7" s="5">
         <v>2.62738</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>2.6546599999999998</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -531,7 +545,9 @@
       <c r="C8" s="5">
         <v>2.62818</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>2.6555800000000001</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -551,7 +567,9 @@
       <c r="C9" s="5">
         <v>2.6289799999999999</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>2.6564999999999999</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -571,7 +589,9 @@
       <c r="C10" s="5">
         <v>2.6297799999999998</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>2.6574200000000001</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -588,7 +608,9 @@
       <c r="B11" s="5">
         <v>2.60677</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>2.6306600000000002</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -607,7 +629,9 @@
       <c r="B12" s="5">
         <v>2.60765</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>2.6315400000000002</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -625,7 +649,9 @@
       <c r="B13" s="5">
         <v>2.60853</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>2.6324200000000002</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -643,7 +669,9 @@
       <c r="B14" s="5">
         <v>2.60941</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>2.6333000000000002</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -661,7 +689,9 @@
       <c r="B15" s="5">
         <v>2.61029</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>2.6341800000000002</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -679,7 +709,9 @@
       <c r="B16" s="5">
         <v>2.61117</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>2.6350600000000002</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -697,7 +729,9 @@
       <c r="B17" s="5">
         <v>2.61205</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>2.6359400000000002</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -715,7 +749,9 @@
       <c r="B18" s="5">
         <v>2.61293</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>2.6368200000000002</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -733,7 +769,9 @@
       <c r="B19" s="5">
         <v>2.61381</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>2.6377000000000002</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -751,7 +789,9 @@
       <c r="B20" s="5">
         <v>2.61469</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>2.6385800000000001</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -769,7 +809,9 @@
       <c r="B21" s="5">
         <v>2.61557</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>2.6394600000000001</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -787,7 +829,9 @@
       <c r="B22" s="5">
         <v>2.6164499999999999</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>2.6403400000000001</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -805,7 +849,9 @@
       <c r="B23" s="5">
         <v>2.6173299999999999</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>2.6412200000000001</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -823,7 +869,9 @@
       <c r="B24" s="5">
         <v>2.61822</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>2.6421000000000001</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -841,7 +889,9 @@
       <c r="B25" s="5">
         <v>2.61911</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>2.6429800000000001</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -859,7 +909,9 @@
       <c r="B26" s="5">
         <v>2.62</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>2.6438600000000001</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -877,7 +929,9 @@
       <c r="B27" s="5">
         <v>2.6208900000000002</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>2.6447400000000001</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -895,7 +949,9 @@
       <c r="B28" s="5">
         <v>2.6217800000000002</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>2.6456200000000001</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -911,7 +967,9 @@
         <v>2.5971700000000002</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>2.6465000000000001</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -927,7 +985,9 @@
         <v>2.5978300000000001</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>2.6473800000000001</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -943,7 +1003,9 @@
         <v>2.59849</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>2.6482600000000001</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="3"/>

--- a/2025.xlsx
+++ b/2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B0217-C103-49E1-B6E1-68EB4F10FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F05AF-C93F-42D2-AA9A-54CCFDB43638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,9 @@
       <c r="D1" s="5">
         <v>2.6491699999999998</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5">
+        <v>2.67862</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -416,7 +418,9 @@
       <c r="D2" s="5">
         <v>2.65008</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>2.6796000000000002</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -438,7 +442,9 @@
       <c r="D3" s="5">
         <v>2.6509900000000002</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>2.68058</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -460,7 +466,9 @@
       <c r="D4" s="5">
         <v>2.6518999999999999</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>2.6815600000000002</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -482,7 +490,9 @@
       <c r="D5" s="5">
         <v>2.6528200000000002</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>2.6825399999999999</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -504,7 +514,9 @@
       <c r="D6" s="5">
         <v>2.65374</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>2.6835200000000001</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -526,7 +538,9 @@
       <c r="D7" s="5">
         <v>2.6546599999999998</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>2.68451</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -548,7 +562,9 @@
       <c r="D8" s="5">
         <v>2.6555800000000001</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>2.6855000000000002</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -570,7 +586,9 @@
       <c r="D9" s="5">
         <v>2.6564999999999999</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>2.68649</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -592,7 +610,9 @@
       <c r="D10" s="5">
         <v>2.6574200000000001</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>2.6874799999999999</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -611,7 +631,9 @@
       <c r="C11" s="5">
         <v>2.6306600000000002</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>2.6584300000000001</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -632,7 +654,9 @@
       <c r="C12" s="5">
         <v>2.6315400000000002</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>2.65944</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -652,7 +676,9 @@
       <c r="C13" s="5">
         <v>2.6324200000000002</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>2.66045</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -672,7 +698,9 @@
       <c r="C14" s="5">
         <v>2.6333000000000002</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>2.6614599999999999</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -692,7 +720,9 @@
       <c r="C15" s="5">
         <v>2.6341800000000002</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>2.6624699999999999</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -712,7 +742,9 @@
       <c r="C16" s="5">
         <v>2.6350600000000002</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>2.6634799999999998</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -732,7 +764,9 @@
       <c r="C17" s="5">
         <v>2.6359400000000002</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>2.6644899999999998</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -752,7 +786,9 @@
       <c r="C18" s="5">
         <v>2.6368200000000002</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>2.6655000000000002</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -772,7 +808,9 @@
       <c r="C19" s="5">
         <v>2.6377000000000002</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>2.6665100000000002</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -792,7 +830,9 @@
       <c r="C20" s="5">
         <v>2.6385800000000001</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>2.6675200000000001</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -812,7 +852,9 @@
       <c r="C21" s="5">
         <v>2.6394600000000001</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>2.6685300000000001</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -832,7 +874,9 @@
       <c r="C22" s="5">
         <v>2.6403400000000001</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <v>2.66954</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -852,7 +896,9 @@
       <c r="C23" s="5">
         <v>2.6412200000000001</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>2.67055</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -872,7 +918,9 @@
       <c r="C24" s="5">
         <v>2.6421000000000001</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>2.6715599999999999</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -892,7 +940,9 @@
       <c r="C25" s="5">
         <v>2.6429800000000001</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>2.6725699999999999</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -912,7 +962,9 @@
       <c r="C26" s="5">
         <v>2.6438600000000001</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>2.6735799999999998</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -932,7 +984,9 @@
       <c r="C27" s="5">
         <v>2.6447400000000001</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>2.6745899999999998</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -952,7 +1006,9 @@
       <c r="C28" s="5">
         <v>2.6456200000000001</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>2.6756000000000002</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -970,7 +1026,9 @@
       <c r="C29" s="5">
         <v>2.6465000000000001</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>2.6766200000000002</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -988,7 +1046,9 @@
       <c r="C30" s="5">
         <v>2.6473800000000001</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>2.6776399999999998</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>

--- a/2025.xlsx
+++ b/2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F05AF-C93F-42D2-AA9A-54CCFDB43638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E044C-BAE5-4C21-AA73-B86E8A57F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,9 @@
       <c r="E1" s="5">
         <v>2.67862</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5">
+        <v>2.7098100000000001</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -421,7 +423,9 @@
       <c r="E2" s="5">
         <v>2.6796000000000002</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>2.7108599999999998</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -445,7 +449,9 @@
       <c r="E3" s="5">
         <v>2.68058</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>2.71191</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -469,7 +475,9 @@
       <c r="E4" s="5">
         <v>2.6815600000000002</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>2.7129599999999998</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -493,7 +501,9 @@
       <c r="E5" s="5">
         <v>2.6825399999999999</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>2.71401</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -517,7 +527,9 @@
       <c r="E6" s="5">
         <v>2.6835200000000001</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>2.7150599999999998</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -541,7 +553,9 @@
       <c r="E7" s="5">
         <v>2.68451</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>2.71611</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -565,7 +579,9 @@
       <c r="E8" s="5">
         <v>2.6855000000000002</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>2.7171599999999998</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -589,7 +605,9 @@
       <c r="E9" s="5">
         <v>2.68649</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>2.7182200000000001</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -613,7 +631,9 @@
       <c r="E10" s="5">
         <v>2.6874799999999999</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>2.7192799999999999</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -634,7 +654,9 @@
       <c r="D11" s="5">
         <v>2.6584300000000001</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>2.6884899999999998</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -657,7 +679,9 @@
       <c r="D12" s="5">
         <v>2.65944</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>2.6894999999999998</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -679,7 +703,9 @@
       <c r="D13" s="5">
         <v>2.66045</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>2.6905100000000002</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -701,7 +727,9 @@
       <c r="D14" s="5">
         <v>2.6614599999999999</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>2.6915200000000001</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -723,7 +751,9 @@
       <c r="D15" s="5">
         <v>2.6624699999999999</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>2.6925300000000001</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -745,7 +775,9 @@
       <c r="D16" s="5">
         <v>2.6634799999999998</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>2.69354</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -767,7 +799,9 @@
       <c r="D17" s="5">
         <v>2.6644899999999998</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>2.69455</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -789,7 +823,9 @@
       <c r="D18" s="5">
         <v>2.6655000000000002</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>2.69556</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -811,7 +847,9 @@
       <c r="D19" s="5">
         <v>2.6665100000000002</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>2.6965699999999999</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -833,7 +871,9 @@
       <c r="D20" s="5">
         <v>2.6675200000000001</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>2.6975799999999999</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -855,7 +895,9 @@
       <c r="D21" s="5">
         <v>2.6685300000000001</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>2.6985899999999998</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -877,7 +919,9 @@
       <c r="D22" s="5">
         <v>2.66954</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>2.6996000000000002</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -899,7 +943,9 @@
       <c r="D23" s="5">
         <v>2.67055</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>2.7006100000000002</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -921,7 +967,9 @@
       <c r="D24" s="5">
         <v>2.6715599999999999</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>2.7016200000000001</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -943,7 +991,9 @@
       <c r="D25" s="5">
         <v>2.6725699999999999</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>2.7026400000000002</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -965,7 +1015,9 @@
       <c r="D26" s="5">
         <v>2.6735799999999998</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>2.7036600000000002</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -987,7 +1039,9 @@
       <c r="D27" s="5">
         <v>2.6745899999999998</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>2.7046800000000002</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1009,7 +1063,9 @@
       <c r="D28" s="5">
         <v>2.6756000000000002</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>2.7057000000000002</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1029,7 +1085,9 @@
       <c r="D29" s="5">
         <v>2.6766200000000002</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>2.7067199999999998</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1049,7 +1107,9 @@
       <c r="D30" s="5">
         <v>2.6776399999999998</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>2.7077399999999998</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1067,7 +1127,9 @@
         <v>2.6482600000000001</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>2.7087599999999998</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>

--- a/2025.xlsx
+++ b/2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADSENSE\WEBS\ABOGADOSBOLIVIANOS.XYZ\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E044C-BAE5-4C21-AA73-B86E8A57F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1366F-2ADC-4090-85BF-DA1461580D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,20 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -130,16 +139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -147,9 +153,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,772 +374,1184 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="7"/>
+    <col min="2" max="2" width="12.6640625" style="6"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>2.5789599999999999</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>2.5992299999999999</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>2.6225800000000001</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>2.6491699999999998</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>2.67862</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>2.7098100000000001</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="G1" s="4">
+        <v>2.7462399999999998</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2.8444699999999998</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2.89656</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2.9481299999999999</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2.9984700000000002</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2.57959</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2.5999699999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2.62338</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2.65008</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2.6796000000000002</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2.7108599999999998</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="G2" s="4">
+        <v>2.74749</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.7943600000000002</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.8462200000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.8982399999999999</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2.9498500000000001</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3.0000900000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2.5802200000000002</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2.6007099999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2.62418</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.6509900000000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2.68058</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2.71191</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="G3" s="4">
+        <v>2.7487400000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.7959700000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.8479800000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.8999299999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.9515699999999998</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3.0017100000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2.5808499999999999</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2.6014499999999998</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2.6249799999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2.6518999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.6815600000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2.7129599999999998</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="G4" s="4">
+        <v>2.7499899999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.79758</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.8497400000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.9016199999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.95329</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3.0033300000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2.58148</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2.6021899999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2.6257799999999998</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2.6528200000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.6825399999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2.71401</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="G5" s="4">
+        <v>2.7512400000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.7991999999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.8515000000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.9033099999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.9550100000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3.00495</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2.5821100000000001</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2.6029300000000002</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.6265800000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2.65374</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.6835200000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2.7150599999999998</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="4">
+        <v>2.7524899999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.8008199999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.8532600000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.9567299999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3.00657</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2.5827399999999998</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2.6036700000000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2.62738</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2.6546599999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2.68451</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2.71611</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="G7" s="4">
+        <v>2.7537400000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.8024399999999998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.8550200000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.9066900000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2.95845</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3.0081899999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2.5833699999999999</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.6044100000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2.62818</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2.6555800000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2.6855000000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2.7171599999999998</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="4">
+        <v>2.7549899999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.8040600000000002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.8567800000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.9083800000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.9601700000000002</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3.0098099999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2.5840000000000001</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2.6051500000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2.6289799999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.6564999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.68649</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2.7182200000000001</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="4">
+        <v>2.75624</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.8056800000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.8585400000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.9100700000000002</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2.9618899999999999</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.0114299999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>2.5846300000000002</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2.60589</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.6297799999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.6574200000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2.6874799999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2.7192799999999999</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="4">
+        <v>2.7574999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.8073000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.8603000000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.9117600000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.9636100000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.0130599999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2.5852900000000001</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2.60677</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2.6306600000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.6584300000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2.6884899999999998</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
+      <c r="F11" s="4">
+        <v>2.7205599999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.75909</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.80898</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.8620199999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.9134000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.9652599999999998</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2.58595</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2.60765</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2.6315400000000002</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2.65944</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2.6894999999999998</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
+      <c r="F12" s="4">
+        <v>2.7218399999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.7606799999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.8106599999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.86374</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.9150399999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2.9669099999999999</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>2.5866099999999999</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2.60853</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>2.6324200000000002</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2.66045</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2.6905100000000002</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
+      <c r="F13" s="4">
+        <v>2.7231200000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.76227</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.8123399999999998</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.8654600000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.9166799999999999</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2.9685600000000001</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>2.5872700000000002</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>2.60941</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.6333000000000002</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2.6614599999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>2.6915200000000001</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
+      <c r="F14" s="4">
+        <v>2.7244000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.7638699999999998</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.8140200000000002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.8671799999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.91832</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.9702199999999999</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>2.5879300000000001</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>2.61029</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2.6341800000000002</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2.6624699999999999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2.6925300000000001</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
+      <c r="F15" s="4">
+        <v>2.7256800000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.7654700000000001</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.8157000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.8689</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.9199600000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.9718800000000001</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>2.5885899999999999</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2.61117</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2.6350600000000002</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2.6634799999999998</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>2.69354</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
+      <c r="F16" s="4">
+        <v>2.7269600000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.7670699999999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.81738</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.8706200000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2.9216099999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.9735399999999998</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>2.5892499999999998</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>2.61205</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2.6359400000000002</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>2.6644899999999998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>2.69455</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="8"/>
+      <c r="F17" s="4">
+        <v>2.72824</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.7686700000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.8190599999999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.87235</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.92326</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2.9752000000000001</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>2.5899100000000002</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2.61293</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2.6368200000000002</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2.6655000000000002</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>2.69556</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
+      <c r="F18" s="4">
+        <v>2.7295199999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.77027</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.8207399999999998</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.8740800000000002</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.9249100000000001</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.9768599999999998</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>2.59057</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>2.61381</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2.6377000000000002</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>2.6665100000000002</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>2.6965699999999999</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="8"/>
+      <c r="F19" s="4">
+        <v>2.7307999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.7718699999999998</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.8224200000000002</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2.87581</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2.9265599999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2.9785200000000001</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>2.5912299999999999</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2.61469</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2.6385800000000001</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2.6675200000000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>2.6975799999999999</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="8"/>
+      <c r="F20" s="4">
+        <v>2.7320899999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.7734700000000001</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.8241100000000001</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.8775400000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2.92821</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2.9801799999999998</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>2.5918899999999998</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2.61557</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>2.6394600000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>2.6685300000000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>2.6985899999999998</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="8"/>
+      <c r="F21" s="4">
+        <v>2.7333799999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.7750699999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.8258000000000001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2.87927</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.9298600000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2.98184</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>2.5925500000000001</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>2.6164499999999999</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2.6403400000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>2.66954</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>2.6996000000000002</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="8"/>
+      <c r="F22" s="4">
+        <v>2.7346699999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.7766700000000002</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.8274900000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.9315099999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.9834999999999998</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2.59321</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2.6173299999999999</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2.6412200000000001</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>2.67055</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>2.7006100000000002</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="8"/>
+      <c r="F23" s="4">
+        <v>2.7359599999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.77827</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.82918</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.88273</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.93316</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.98516</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2.5938699999999999</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>2.61822</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2.6421000000000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2.6715599999999999</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>2.7016200000000001</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="8"/>
+      <c r="F24" s="4">
+        <v>2.73725</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.7798699999999998</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.83087</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.8844599999999998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2.9348100000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.9868299999999999</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>2.5945299999999998</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>2.61911</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>2.6429800000000001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>2.6725699999999999</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>2.7026400000000002</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="8"/>
+      <c r="F25" s="4">
+        <v>2.73854</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.7814800000000002</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.83256</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2.88619</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2.9364599999999998</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.9885000000000002</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>2.5951900000000001</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>2.62</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>2.6438600000000001</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>2.6735799999999998</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>2.7036600000000002</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="8"/>
+      <c r="F26" s="4">
+        <v>2.73983</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.7830900000000001</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.8342499999999999</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.8879199999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.93811</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2.99017</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2.59585</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>2.6208900000000002</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>2.6447400000000001</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>2.6745899999999998</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>2.7046800000000002</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="8"/>
+      <c r="F27" s="4">
+        <v>2.74112</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.7847</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.8359399999999999</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.8896600000000001</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2.9397700000000002</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.9918399999999998</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2.5965099999999999</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>2.6217800000000002</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>2.6456200000000001</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>2.6756000000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>2.7057000000000002</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="8"/>
+      <c r="F28" s="4">
+        <v>2.74241</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.7863099999999998</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.8376299999999999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.8914</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2.94143</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2.9935100000000001</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>2.5971700000000002</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
         <v>2.6465000000000001</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2.6766200000000002</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>2.7067199999999998</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="8"/>
+      <c r="F29" s="4">
+        <v>2.7437</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.7879200000000002</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.8393199999999998</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.8931399999999998</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2.9430900000000002</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2.99518</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2.5978300000000001</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
         <v>2.6473800000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>2.6776399999999998</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>2.7077399999999998</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="8"/>
+      <c r="F30" s="4">
+        <v>2.74499</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.7895300000000001</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.8410199999999999</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.8948800000000001</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2.94475</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2.9968499999999998</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2.59849</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
         <v>2.6482600000000001</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>2.7087599999999998</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="8"/>
+      <c r="G31" s="4">
+        <v>2.79114</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.8427199999999999</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2.9464100000000002</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
